--- a/data/trans_orig/Q19A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q19A-Provincia-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.5783198140046829</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.405138796344509</v>
+        <v>0.4051387963445091</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3370942162007238</v>
@@ -681,7 +681,7 @@
         <v>0.7187589533552582</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.5163812793761585</v>
+        <v>0.5163812793761584</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3114139836800026</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2134146907260552</v>
+        <v>0.2116499517700742</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3930414701263577</v>
+        <v>0.3928262259382304</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.447942421014616</v>
+        <v>0.4408155780246216</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3389891136505814</v>
+        <v>0.3336736040838832</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.253106710790831</v>
+        <v>0.2517248127273851</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5497811182290825</v>
+        <v>0.5706403963883175</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5709908471799776</v>
+        <v>0.5578927719332888</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4351668082888551</v>
+        <v>0.4357916523916777</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2529309389346914</v>
+        <v>0.2524227249171285</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.503923457476552</v>
+        <v>0.5152638823620003</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5472583249663083</v>
+        <v>0.5217611353033864</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4097859232534325</v>
+        <v>0.4091962374127737</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3854445711536854</v>
+        <v>0.3868375232133027</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.710642795826636</v>
+        <v>0.7195506061557473</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7574807242752609</v>
+        <v>0.788197501766592</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4983284280500018</v>
+        <v>0.5004168483878862</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4653283851597703</v>
+        <v>0.4688675752612083</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.286888294265186</v>
+        <v>1.300597965900936</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9469969169137317</v>
+        <v>0.9215764752784277</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6131849252757525</v>
+        <v>0.6103989619479749</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3817629699615457</v>
+        <v>0.3844152917378899</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8989300630024754</v>
+        <v>0.90782636462538</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7915372320650134</v>
+        <v>0.7701324016512275</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.526740611095296</v>
+        <v>0.5302222065541021</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.5205509986430735</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4766225973114923</v>
+        <v>0.4766225973114922</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.6486460005184522</v>
@@ -829,7 +829,7 @@
         <v>0.4932910620382828</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4128435068140479</v>
+        <v>0.412843506814048</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4710418687843405</v>
+        <v>0.4703022462334574</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3365470577963214</v>
+        <v>0.3337634290594894</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3741844402391769</v>
+        <v>0.3891384657761513</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2755951640811757</v>
+        <v>0.2773102451157741</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5900353374805384</v>
+        <v>0.586106498404533</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3910332910713103</v>
+        <v>0.3919033490584566</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.438610766866722</v>
+        <v>0.4353963830583273</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3903939249428584</v>
+        <v>0.387747846521967</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5652944529117317</v>
+        <v>0.56142039293503</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3840535512178275</v>
+        <v>0.3920570621928888</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4324478268763799</v>
+        <v>0.4288218595386026</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3525018502597905</v>
+        <v>0.3534778911312605</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8053087571039401</v>
+        <v>0.8087617477985258</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5247781805390968</v>
+        <v>0.5247528585945939</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5539401855616122</v>
+        <v>0.5643147851200525</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4421187841017442</v>
+        <v>0.4459441882690428</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8411890634793108</v>
+        <v>0.8288406718851226</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6353197800191411</v>
+        <v>0.6510384652765741</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6434064560176996</v>
+        <v>0.6372414736414223</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6074589073131496</v>
+        <v>0.5877688424496107</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7700908747804104</v>
+        <v>0.7548961876382031</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5389840138982812</v>
+        <v>0.5499702120177531</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5643822442566252</v>
+        <v>0.56090978570247</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4849661024198818</v>
+        <v>0.4835584755279972</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.523523669728411</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5933522161550316</v>
+        <v>0.5933522161550318</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3296287187305645</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.217354836291978</v>
+        <v>0.221944334698471</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2805028101071581</v>
+        <v>0.2888780183049685</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4247752946817511</v>
+        <v>0.4139282165063153</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2917794065013918</v>
+        <v>0.2778568350660796</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2899491553421127</v>
+        <v>0.2893532020557644</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5436216904328176</v>
+        <v>0.5341394913205707</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4145505937761635</v>
+        <v>0.4133747137054904</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4536142015073819</v>
+        <v>0.4617289609534104</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2728701764941269</v>
+        <v>0.2744697348017683</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4320929255049851</v>
+        <v>0.4392156822590976</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4386701766367636</v>
+        <v>0.4450514578066756</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.404755608583179</v>
+        <v>0.4045944178270895</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4156213698308361</v>
+        <v>0.4233518230415012</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5258649116479299</v>
+        <v>0.5114192834819895</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7646991478292524</v>
+        <v>0.7777151276747506</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5404313698052001</v>
+        <v>0.5439216837340799</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4799487410183877</v>
+        <v>0.4923992138361844</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.817845031118962</v>
+        <v>0.7914746229106566</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7068236615605921</v>
+        <v>0.6782440150710928</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9892292505824569</v>
+        <v>1.025630377035776</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4032850163732837</v>
+        <v>0.4158686550288657</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5991375898964798</v>
+        <v>0.61559462489176</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.655627499935726</v>
+        <v>0.6548353160129944</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6699848847262867</v>
+        <v>0.6783615521579501</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.5575084561094998</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6485745935342789</v>
+        <v>0.648574593534279</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5422291449201949</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3703066973283923</v>
+        <v>0.372189987288803</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3598488787923877</v>
+        <v>0.348408444787301</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4463084455959198</v>
+        <v>0.4374475139442263</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4797605365427818</v>
+        <v>0.4792698580299518</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4395815053042518</v>
+        <v>0.4472322665221353</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3812866162617924</v>
+        <v>0.3880702730844901</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5951262898532765</v>
+        <v>0.5946084519639607</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5763820068550798</v>
+        <v>0.5931516864719069</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4337893308153837</v>
+        <v>0.4334774966203839</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4048422984268962</v>
+        <v>0.3952468770941661</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5590540321598975</v>
+        <v>0.5458607429009861</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5704890086346673</v>
+        <v>0.5724437588633661</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.674925631854969</v>
+        <v>0.6853799995531384</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6166324343238651</v>
+        <v>0.5930416144859773</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.717263708672633</v>
+        <v>0.7053390344268679</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.081641457124462</v>
+        <v>1.037431852460597</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6588761131129289</v>
+        <v>0.6565203301484436</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6385167786746144</v>
+        <v>0.6386692970808152</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8697604879445671</v>
+        <v>0.877963228572586</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8594216170683532</v>
+        <v>0.8800917568278201</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6113623129644264</v>
+        <v>0.6247748967773443</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.572163787437459</v>
+        <v>0.5732190545087906</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7487678216795627</v>
+        <v>0.7462254304092351</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8539024772331195</v>
+        <v>0.8696801783091972</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.2820554938719168</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.198792639075975</v>
+        <v>0.1987926390759751</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.5159662873033343</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5248873762366671</v>
+        <v>0.5364617196441059</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3036876519386666</v>
+        <v>0.3224102760287663</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1876406431953598</v>
+        <v>0.1917041834959991</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1320050752294236</v>
+        <v>0.1299585860089185</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.365726860448438</v>
+        <v>0.3828378823808085</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6157804912302527</v>
+        <v>0.5909551508992844</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3714984204162102</v>
+        <v>0.3758876515852438</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2206235229390737</v>
+        <v>0.2177174910118617</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4977716294776046</v>
+        <v>0.496867676057508</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5097538188440385</v>
+        <v>0.5055871764436539</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.307856208713811</v>
+        <v>0.305979475440237</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1926044626345425</v>
+        <v>0.196934238213637</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9976819258101554</v>
+        <v>1.041546281022458</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6861071587160028</v>
+        <v>0.6816573488779192</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4229749227193935</v>
+        <v>0.4423937573645487</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2922834974972462</v>
+        <v>0.2866891880535801</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6992884661159272</v>
+        <v>0.7139170449523192</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.114605453517043</v>
+        <v>1.113898407890584</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6888391639364535</v>
+        <v>0.7265606315951206</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3899556310396899</v>
+        <v>0.3923168907479804</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8064299499085313</v>
+        <v>0.7946081368469298</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.8191293901588138</v>
+        <v>0.8378982373450293</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5210681793090918</v>
+        <v>0.5051498612577647</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3088119111272476</v>
+        <v>0.3105508144611133</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.5891437830601727</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.4645097750381401</v>
+        <v>0.4645097750381399</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.3700927528072326</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1761629443649132</v>
+        <v>0.1765024892354423</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3835875052660953</v>
+        <v>0.381715428870624</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4487007696741572</v>
+        <v>0.445084856146052</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3482251493152446</v>
+        <v>0.3489961134862694</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.376454416699567</v>
+        <v>0.3730965663123801</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.5501577127201216</v>
+        <v>0.5295793842134812</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4759250329538095</v>
+        <v>0.4833774381129105</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.383925124290035</v>
+        <v>0.3658418586755728</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2992066033270073</v>
+        <v>0.2928253330156325</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.5016742295314471</v>
+        <v>0.5091032296924328</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.497493546922001</v>
+        <v>0.4934619904419134</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3855205635363176</v>
+        <v>0.3918777821112353</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.354311804268357</v>
+        <v>0.3769508132671917</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.653984766598264</v>
+        <v>0.6418454766050365</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8158844301524311</v>
+        <v>0.7929989340056892</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6279041517988413</v>
+        <v>0.6177235723555401</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8020540265414418</v>
+        <v>0.7473182103870669</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>1.022877445719762</v>
+        <v>1.007327880704869</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7241997618716294</v>
+        <v>0.7344282807417176</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5956866645449116</v>
+        <v>0.5705072468641907</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5231157177435609</v>
+        <v>0.5007773938560195</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7677774961594819</v>
+        <v>0.7897309212443329</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.7127933049823912</v>
+        <v>0.7141996991304984</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.5573385406414129</v>
+        <v>0.5469828308141137</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3205837775880678</v>
+        <v>0.3224731239091794</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.34549772683609</v>
+        <v>0.3425871324546598</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3452232520325131</v>
+        <v>0.343698486086798</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4679214186310609</v>
+        <v>0.4707120017716958</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.472312855350665</v>
+        <v>0.4648295146349903</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4737030481336405</v>
+        <v>0.4715659145071131</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4788317876916305</v>
+        <v>0.4804988826117655</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7275718707743057</v>
+        <v>0.7314234312519936</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.415318554816988</v>
+        <v>0.4176220504963279</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4343638497784632</v>
+        <v>0.4234776122226963</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4334569790543633</v>
+        <v>0.4322446861892641</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.6255405802667877</v>
+        <v>0.6237246043411969</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4639759789426335</v>
+        <v>0.4594170694021051</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5529742724856956</v>
+        <v>0.5261014345888816</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4908364723199514</v>
+        <v>0.4913233366214151</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6533100176631144</v>
+        <v>0.6576332499119414</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6352664151535309</v>
+        <v>0.6294483616745741</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6479300657588523</v>
+        <v>0.6478987392824007</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6347354173663321</v>
+        <v>0.6367494132740245</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9725110958411826</v>
+        <v>0.9811670173408741</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5230403028288905</v>
+        <v>0.5277892818277928</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5564426534822005</v>
+        <v>0.5489081379003112</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5376029604766903</v>
+        <v>0.5331929631334347</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.7802443034975197</v>
+        <v>0.7818372748688875</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +1633,7 @@
         <v>0.4649402160298426</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.3673501636246211</v>
+        <v>0.3673501636246213</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.4720625229143388</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3283463652617333</v>
+        <v>0.3342776492620705</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2861827249237135</v>
+        <v>0.289032951053086</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3837995470067008</v>
+        <v>0.3847869278898167</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2421724607698043</v>
+        <v>0.2419555834552474</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.4279226976944631</v>
+        <v>0.4286392812955002</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.495212085560721</v>
+        <v>0.4931727597720608</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4109272178890178</v>
+        <v>0.4045181944809956</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3114150582996311</v>
+        <v>0.3157892672039772</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.4057071992759042</v>
+        <v>0.4034967146912007</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.4168654140324926</v>
+        <v>0.4099789655641011</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.4124983125047647</v>
+        <v>0.4160372580966227</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2965973776890506</v>
+        <v>0.2950565652412167</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5669991731246706</v>
+        <v>0.5959584035917175</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4249608723834357</v>
+        <v>0.425606649416957</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5429631586169311</v>
+        <v>0.540066925840985</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.377862937746106</v>
+        <v>0.3672367623696065</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.667491517953976</v>
+        <v>0.6854132057907542</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7357929914186425</v>
+        <v>0.7309772429546462</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.5303324455814394</v>
+        <v>0.5408196526955928</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4271505989629058</v>
+        <v>0.4373626356000674</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.5713503654577761</v>
+        <v>0.5774509562669256</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.5512308890185965</v>
+        <v>0.5500418361744678</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.5132474493884144</v>
+        <v>0.5167151003524877</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3866079046479866</v>
+        <v>0.3825061347077268</v>
       </c>
     </row>
     <row r="28">
@@ -1769,7 +1769,7 @@
         <v>0.5561311903818519</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.5516540123823851</v>
+        <v>0.5516540123823852</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.4747221730014991</v>
@@ -1781,7 +1781,7 @@
         <v>0.517184193187492</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.4863875198100112</v>
+        <v>0.4863875198100113</v>
       </c>
     </row>
     <row r="29">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3852247698073394</v>
+        <v>0.3863034340893119</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3863869678558341</v>
+        <v>0.3826108332604813</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.4374828921513595</v>
+        <v>0.4417576212452758</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3816050477638474</v>
+        <v>0.3835802411075943</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.4823612136698771</v>
+        <v>0.4830401508787655</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.5568269117146938</v>
+        <v>0.5600160064580348</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.5202123130155546</v>
+        <v>0.5209764960066045</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.5124663831313844</v>
+        <v>0.5132324167261983</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.4453477530337714</v>
+        <v>0.4463367074950827</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.4844952539803308</v>
+        <v>0.4832766780309349</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.4933883117248132</v>
+        <v>0.4895892285428761</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.4584499931725509</v>
+        <v>0.458048638775744</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4731366961014443</v>
+        <v>0.4732448610885562</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4664247983017683</v>
+        <v>0.4576771276466743</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5184437200297827</v>
+        <v>0.5192572749202398</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4640063413740042</v>
+        <v>0.4670664630194257</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5699237079766001</v>
+        <v>0.5817098416427871</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.669716908587021</v>
+        <v>0.6726863594842521</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.5970951341813023</v>
+        <v>0.6012857467402508</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.5971646137228366</v>
+        <v>0.5997513043144367</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.512411686695326</v>
+        <v>0.5092155588206941</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.5534108900748662</v>
+        <v>0.5512651421080023</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.5478404175457511</v>
+        <v>0.5468016028484591</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.5193013161913822</v>
+        <v>0.5172668161346238</v>
       </c>
     </row>
     <row r="31">
